--- a/src/test/java/com/pack/testData/EmployeeAvailability.xlsx
+++ b/src/test/java/com/pack/testData/EmployeeAvailability.xlsx
@@ -187,16 +187,75 @@
     <t>8:00PM</t>
   </si>
   <si>
-    <t xml:space="preserve">DoubleClickDay
+    <t xml:space="preserve">DoubleClickDay
 </t>
   </si>
   <si>
-    <t>DoubleClickDay1
+    <t>DoubleClickDay1
 TUESDAY</t>
   </si>
   <si>
-    <t xml:space="preserve">DoubleClickDay1
+    <t xml:space="preserve">DoubleClickDay1
 </t>
+  </si>
+  <si>
+    <t>Filter Job</t>
+  </si>
+  <si>
+    <t>Employee Name</t>
+  </si>
+  <si>
+    <t>//ul[@role='tree']/li[1]/ul[1]/li[1]/ul[1]/li[1]/span[2]/span[1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//ul[@role='tree']/li[1]/ul[1]/li[1]/ul[1]/li[1]/span[2]/span[1]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//li[1]//ul[1]//li[2]//ul[1]//li[3]//span[2]//span[1]
+</t>
+  </si>
+  <si>
+    <t>john</t>
+  </si>
+  <si>
+    <t>srikanth</t>
+  </si>
+  <si>
+    <t>bharat</t>
+  </si>
+  <si>
+    <t>Cantu, Mira</t>
+  </si>
+  <si>
+    <t>//ul[@role='tree']/li[1]/ul[1]/li[2]/ul[1]/li[1]/span[2]/span[1]</t>
+  </si>
+  <si>
+    <t>//ul[@role='tree']/li[1]/ul[1]/li[2]/ul[1]/li[9]/span[2]/span[1]</t>
+  </si>
+  <si>
+    <t>Brooks</t>
+  </si>
+  <si>
+    <t>//ul[@role='tree']/li[1]/ul[1]/li[2]/ul[1]/li[5]/span[2]/span[1]</t>
+  </si>
+  <si>
+    <t>mallik</t>
+  </si>
+  <si>
+    <t>//ul[@role='tree']/li[1]/ul[1]/li[2]/ul[1]/li[2]/span[2]/span[1]</t>
+  </si>
+  <si>
+    <t>keb</t>
+  </si>
+  <si>
+    <t>//ul[@role='tree']/li[1]/ul[1]/li[2]/ul[1]/li[6]/span[2]/span[1]</t>
+  </si>
+  <si>
+    <t>zach</t>
+  </si>
+  <si>
+    <t>vishal</t>
   </si>
 </sst>
 </file>
@@ -600,8 +659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="E1">
-      <selection activeCell="P16" sqref="P16" activeCellId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
+      <selection activeCell="Q8" sqref="Q8" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -619,18 +678,20 @@
     <col min="12" max="12" width="14.6328" customWidth="1" bestFit="1"/>
     <col min="13" max="13" width="12.5703" customWidth="1"/>
     <col min="14" max="14" width="12.5703" customWidth="1"/>
-    <col min="15" max="15" width="7.08984" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="50.0898" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" width="14.3633" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" width="7.08984" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -677,45 +738,51 @@
         <v>12</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1">
-        <v>5437</v>
+        <v>585213</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>22</v>
@@ -756,40 +823,46 @@
       <c r="N2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="1">
-        <v>5437</v>
+      <c r="O2" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="P2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>585213</v>
+      </c>
+      <c r="R2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="S2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="U2" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="W2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="Y2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB2" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -836,46 +909,52 @@
       <c r="N3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="O3" s="1">
+      <c r="O3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q3" s="1">
         <v>987817</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="R3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="T3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="W3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="Z3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Y3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z3" s="1" t="s">
+      <c r="AA3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB3" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1">
-        <v>999887</v>
+        <v>976537</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>42</v>
@@ -916,40 +995,46 @@
       <c r="N4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="O4" s="1">
-        <v>999887</v>
-      </c>
-      <c r="P4" s="2" t="s">
+      <c r="O4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>976537</v>
+      </c>
+      <c r="R4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="S4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="R4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="T4" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="U4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="W4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="V4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="W4" s="2" t="s">
+      <c r="X4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="X4" s="2" t="s">
+      <c r="Z4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="Y4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z4" s="2" t="s">
+      <c r="AA4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB4" s="2" t="s">
         <v>24</v>
       </c>
     </row>
@@ -996,40 +1081,46 @@
       <c r="N5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="O5" s="1">
+      <c r="O5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q5" s="1">
         <v>585278</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="R5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="S5" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="R5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="T5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="V5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="U5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="W5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X5" s="1" t="s">
+      <c r="Z5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y5" s="1" t="s">
+      <c r="AA5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z5" s="1" t="s">
+      <c r="AB5" s="1" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1076,40 +1167,46 @@
       <c r="N6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="O6" s="1">
+      <c r="O6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q6" s="1">
         <v>585211</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="R6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="Q6" s="1" t="s">
+      <c r="S6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="R6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="S6" s="1" t="s">
+      <c r="T6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="U6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="T6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="V6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="X6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="W6" s="1" t="s">
+      <c r="Y6" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="X6" s="1" t="s">
+      <c r="Z6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Y6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z6" s="1" t="s">
+      <c r="AA6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB6" s="1" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1156,46 +1253,52 @@
       <c r="N7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="O7" s="1">
+      <c r="O7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q7" s="1">
         <v>635677</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="R7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="S7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="T7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="S7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="T7" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="U7" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="W7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y7" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="X7" s="1" t="s">
+      <c r="Z7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="Y7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z7" s="1" t="s">
+      <c r="AA7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB7" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1">
-        <v>787887</v>
+        <v>987816</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>28</v>
@@ -1236,40 +1339,46 @@
       <c r="N8" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="O8" s="1">
-        <v>787887</v>
+      <c r="O8" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="P8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>987816</v>
+      </c>
+      <c r="R8" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="Q8" s="1" t="s">
+      <c r="S8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="R8" s="1" t="s">
+      <c r="T8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="S8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="T8" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="U8" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="W8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y8" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="X8" s="1" t="s">
+      <c r="Z8" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="Y8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z8" s="1" t="s">
+      <c r="AA8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB8" s="1" t="s">
         <v>25</v>
       </c>
     </row>

--- a/src/test/java/com/pack/testData/EmployeeAvailability.xlsx
+++ b/src/test/java/com/pack/testData/EmployeeAvailability.xlsx
@@ -208,11 +208,11 @@
     <t>//ul[@role='tree']/li[1]/ul[1]/li[1]/ul[1]/li[1]/span[2]/span[1]</t>
   </si>
   <si>
-    <t xml:space="preserve">//ul[@role='tree']/li[1]/ul[1]/li[1]/ul[1]/li[1]/span[2]/span[1]
+    <t xml:space="preserve">//ul[@role='tree']/li[1]/ul[1]/li[1]/ul[1]/li[1]/span[2]/span[1]
 </t>
   </si>
   <si>
-    <t xml:space="preserve">//li[1]//ul[1]//li[2]//ul[1]//li[3]//span[2]//span[1]
+    <t xml:space="preserve">//li[1]//ul[1]//li[2]//ul[1]//li[3]//span[2]//span[1]
 </t>
   </si>
   <si>
@@ -660,7 +660,7 @@
   <dimension ref="A1:V8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
-      <selection activeCell="Q8" sqref="Q8" activeCellId="0"/>
+      <selection activeCell="L3" sqref="L3" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -815,7 +815,7 @@
         <v>30</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>27</v>
@@ -901,7 +901,7 @@
         <v>40</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>29</v>

--- a/src/test/java/com/pack/testData/EmployeeAvailability.xlsx
+++ b/src/test/java/com/pack/testData/EmployeeAvailability.xlsx
@@ -256,6 +256,9 @@
   </si>
   <si>
     <t>vishal</t>
+  </si>
+  <si>
+    <t>Blanchard, Tasha</t>
   </si>
 </sst>
 </file>
@@ -659,8 +662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
-      <selection activeCell="L3" sqref="L3" activeCellId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="M1">
+      <selection activeCell="P3" sqref="P3" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -679,7 +682,7 @@
     <col min="13" max="13" width="12.5703" customWidth="1"/>
     <col min="14" max="14" width="12.5703" customWidth="1"/>
     <col min="15" max="15" width="50.0898" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" width="14.3633" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" width="14.7266" customWidth="1" bestFit="1"/>
     <col min="17" max="17" width="7.08984" customWidth="1" bestFit="1"/>
     <col min="18" max="18" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="9.85546875" bestFit="1" customWidth="1"/>
@@ -868,7 +871,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1">
-        <v>987817</v>
+        <v>69</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>37</v>
@@ -913,10 +916,10 @@
         <v>59</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="Q3" s="1">
-        <v>987817</v>
+        <v>69</v>
       </c>
       <c r="R3" s="1" t="s">
         <v>28</v>
